--- a/Data/model_outputs_baseline/UFA/carbon_emissions_TH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/carbon_emissions_TH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10784244.12496495</v>
+        <v>15097831.9507147</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9351963.278966822</v>
+        <v>13092569.24822849</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8141306.985544495</v>
+        <v>11397460.31034439</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7105793.063408674</v>
+        <v>9947699.001393149</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6220416.586722706</v>
+        <v>8708122.633145254</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5461644.891423021</v>
+        <v>7645548.818060676</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4809539.604427885</v>
+        <v>6732188.510155458</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4247681.845361296</v>
+        <v>5944970.328065279</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3762234.909882319</v>
+        <v>5265055.738294989</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3341926.375656394</v>
+        <v>4676170.228732425</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2977345.585200969</v>
+        <v>4165501.16485207</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2660563.698362221</v>
+        <v>3721558.194192413</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2385118.024668505</v>
+        <v>3334662.717364405</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2144527.2697904</v>
+        <v>2997008.957435856</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1934231.022772011</v>
+        <v>2702005.922086932</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1750253.203396494</v>
+        <v>2443750.1460248</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1589409.602506896</v>
+        <v>2217065.065371641</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1448006.678985378</v>
+        <v>2018228.086706277</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1323495.216830283</v>
+        <v>1843777.229307821</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1213853.171097202</v>
+        <v>1690494.606812587</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1117876.906619829</v>
+        <v>1555998.213781812</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1033730.096947446</v>
+        <v>1437485.441217562</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>959819.1048287711</v>
+        <v>1332834.772829041</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>895064.8032551515</v>
+        <v>1240538.113553444</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>838223.1361269557</v>
+        <v>1158887.983768058</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>788065.1626630693</v>
+        <v>1087190.663400393</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>744031.1195383867</v>
+        <v>1024279.445452251</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>705297.5774450863</v>
+        <v>968697.1775571196</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>671643.9032379687</v>
+        <v>920307.5788470922</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>642491.9407930824</v>
+        <v>877721.7147899679</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>616844.8390978642</v>
+        <v>840539.205451207</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>594685.0262737307</v>
+        <v>808045.8956845445</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>575356.4471200865</v>
+        <v>779253.3563998266</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>558433.8121977062</v>
+        <v>754437.4306458316</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>544057.3524365287</v>
+        <v>733588.9497494304</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>531786.6480095267</v>
+        <v>715730.7206874359</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>521770.7582336658</v>
+        <v>700678.0530181478</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>513766.7068163577</v>
+        <v>688188.0505149197</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>507327.9557108436</v>
+        <v>677953.21016015</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>502366.906933053</v>
+        <v>669783.0375444148</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>498406.2337466105</v>
+        <v>662946.7598371264</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>495745.7287620362</v>
+        <v>658126.3962817513</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>493875.6627703554</v>
+        <v>654144.3530436715</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>493564.2935508074</v>
+        <v>652225.8007529189</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>494310.9809929777</v>
+        <v>651519.7634300685</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>495330.9731488845</v>
+        <v>651921.5478995336</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>497127.2893752627</v>
+        <v>653492.6518927363</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>499414.1588910897</v>
+        <v>655770.8585706394</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>502497.5386087504</v>
+        <v>658999.8540508824</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>506451.7671113178</v>
+        <v>663026.1902185513</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>510849.6726708051</v>
+        <v>668099.1943877253</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>515594.2293846423</v>
+        <v>674044.5931814539</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>520889.747843327</v>
+        <v>680696.1726316514</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>526647.6550270767</v>
+        <v>687654.9908825272</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>532707.4858635563</v>
+        <v>695647.6308096556</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>539212.598134317</v>
+        <v>703958.3008203806</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>545895.2058967111</v>
+        <v>712928.8243660282</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>553117.0639172753</v>
+        <v>722179.9546806326</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>561394.4419830068</v>
+        <v>732009.9038017385</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>569258.7002028776</v>
+        <v>742707.745605727</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>577795.8573570931</v>
+        <v>753215.997919732</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>586682.7771630721</v>
+        <v>764202.9929481626</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>596194.8064110097</v>
+        <v>775968.473323273</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>606012.0738182142</v>
+        <v>788229.4011173663</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>615380.8983596568</v>
+        <v>800695.7337095276</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>625560.8384222514</v>
+        <v>813612.7985854871</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>635690.9737266735</v>
+        <v>827520.8225841328</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>645794.547833738</v>
+        <v>840906.5201028343</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>656510.5165206057</v>
+        <v>855015.6741179972</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>667257.6643026643</v>
+        <v>869039.2338020897</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>678820.9243381235</v>
+        <v>883782.8931828385</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>690366.847551272</v>
+        <v>899517.2355601162</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>702428.5065941708</v>
+        <v>914836.5770138639</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>714833.3264983012</v>
+        <v>931019.2109627419</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>727553.3613397928</v>
+        <v>947511.4285464289</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>740593.3168682593</v>
+        <v>964052.2001892882</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>753741.502337689</v>
+        <v>981230.0820315272</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>767265.5422690904</v>
+        <v>998338.5864729099</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>780586.7912234042</v>
+        <v>1015840.19177758</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>794899.3658963493</v>
+        <v>1033997.403254023</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>808723.0144152124</v>
+        <v>1051869.667847598</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>822778.1097844491</v>
+        <v>1071214.391846322</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>837806.8731341579</v>
+        <v>1090370.055046376</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>852327.7246201127</v>
+        <v>1110274.907888976</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>867596.7228965617</v>
+        <v>1129915.609942369</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>883498.4873850816</v>
+        <v>1151150.45976608</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>898940.2532418612</v>
+        <v>1171875.80908639</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>914057.5918275893</v>
+        <v>1193514.413212846</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>930437.2369997751</v>
+        <v>1215618.85671669</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>946626.1292580792</v>
+        <v>1238621.17186311</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>963441.5286014415</v>
+        <v>1261421.339908947</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>979688.6429256501</v>
+        <v>1284364.54827609</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>996563.2720060926</v>
+        <v>1308472.692888972</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1014561.756624249</v>
+        <v>1332152.840214367</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1031398.305023654</v>
+        <v>1356028.616793491</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1048897.926980563</v>
+        <v>1381413.396249843</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1067447.635039121</v>
+        <v>1407486.068419398</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1085954.919656496</v>
+        <v>1433612.115071943</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1104647.734807549</v>
+        <v>1460010.719325752</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1123391.047206412</v>
+        <v>1486896.933216852</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1142160.734258247</v>
+        <v>1513376.918631924</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1161099.060344127</v>
+        <v>1540955.91894278</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1180574.581068102</v>
+        <v>1569086.436263861</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1200704.052360625</v>
+        <v>1597358.252168814</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1220629.981976393</v>
+        <v>1625282.225350616</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1240969.52800001</v>
+        <v>1653851.286503651</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1261601.50568114</v>
+        <v>1682601.363009726</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1283363.254517237</v>
+        <v>1712571.715262121</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1305369.44419098</v>
+        <v>1742326.484747661</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1327156.529149029</v>
+        <v>1772220.287255196</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1348899.531832816</v>
+        <v>1801509.131772623</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1370993.606459151</v>
+        <v>1832263.222104688</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1393285.449420966</v>
+        <v>1863150.717645453</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1415572.236020847</v>
+        <v>1894443.850868583</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1439339.01588604</v>
+        <v>1926551.090148062</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1463508.37558945</v>
+        <v>1958704.834985522</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1486772.469546228</v>
+        <v>1991945.754094689</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1511533.41406846</v>
+        <v>2026097.04850122</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1536070.439526622</v>
+        <v>2059958.366335462</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1560534.704941819</v>
+        <v>2094559.657968624</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1585420.150150598</v>
+        <v>2129540.759977584</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1610211.56513976</v>
+        <v>2163957.882117569</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1634637.156064105</v>
+        <v>2199049.150908292</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1659413.015863317</v>
+        <v>2234716.748113766</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1684847.932234359</v>
+        <v>2270829.807652774</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1710162.829998625</v>
+        <v>2307649.003083097</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1736282.601292178</v>
+        <v>2344470.126094735</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1763051.91313165</v>
+        <v>2381822.493042959</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1789834.713707285</v>
+        <v>2419520.64960665</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1816715.496198084</v>
+        <v>2458076.331565691</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1843386.077878598</v>
+        <v>2496585.224783277</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1870561.931497693</v>
+        <v>2535387.298958343</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1898090.603138105</v>
+        <v>2574051.368900873</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1925765.916256329</v>
+        <v>2612719.82595756</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1953697.091975258</v>
+        <v>2652378.541829874</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1982087.749771434</v>
+        <v>2692605.23015026</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2009971.767849519</v>
+        <v>2733265.567514935</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2039470.293212133</v>
+        <v>2774066.449901944</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2068751.502170721</v>
+        <v>2815314.925755187</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2098639.584932435</v>
+        <v>2856783.447168325</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2128535.493024094</v>
+        <v>2898112.345206943</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2158938.289637406</v>
+        <v>2938906.246405938</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2190377.877938869</v>
+        <v>2977786.926967219</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2221953.904675478</v>
+        <v>3016626.725233722</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2253751.60875169</v>
+        <v>3054506.914894145</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2286034.488409036</v>
+        <v>3092582.925700003</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2318199.668150307</v>
+        <v>3133893.852592961</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2351697.03411271</v>
+        <v>3177640.780664901</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2384849.365884146</v>
+        <v>3221852.804920035</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2418272.335092134</v>
+        <v>3267203.486577466</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2452208.479985728</v>
+        <v>3312795.505473671</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2486470.612388956</v>
+        <v>3358922.254363425</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2520834.74449991</v>
+        <v>3405858.704618138</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2555919.15477087</v>
+        <v>3453638.631384242</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2591243.184189521</v>
+        <v>3502646.59328991</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2627967.562323697</v>
+        <v>3552044.881291003</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2664945.531786601</v>
+        <v>3602326.539677905</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2700711.923129729</v>
+        <v>3653596.130819265</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2736118.187133982</v>
+        <v>3705852.685769568</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2771128.968265236</v>
+        <v>3758643.947295532</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2804881.67913611</v>
+        <v>3811854.807938591</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2839666.012674737</v>
+        <v>3866180.677807141</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2876517.887656533</v>
+        <v>3921771.785219371</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2915772.398694126</v>
+        <v>3978702.47997362</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2956696.45451701</v>
+        <v>4035876.596908548</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2998942.535368255</v>
+        <v>4094541.546908899</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3042673.115108904</v>
+        <v>4154321.934089255</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3087137.60937149</v>
+        <v>4215356.610620758</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3132031.652317891</v>
+        <v>4277469.415041045</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3177366.002728137</v>
+        <v>4340814.198433872</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3224486.04804446</v>
+        <v>4406080.812646918</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3272761.040551972</v>
+        <v>4472075.852495722</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3321953.758386748</v>
+        <v>4539977.750064246</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3372073.134307933</v>
+        <v>4608454.045013464</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3423447.869647665</v>
+        <v>4679220.852749743</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3476240.186605014</v>
+        <v>4751672.403962292</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3530329.11140991</v>
+        <v>4826118.708019862</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3585594.020973951</v>
+        <v>4902044.345102967</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3642583.340359794</v>
+        <v>4979437.158528153</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3700392.936570953</v>
+        <v>5058620.87395619</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3759366.709495899</v>
+        <v>5140699.308605459</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3820206.965032956</v>
+        <v>5224974.184204013</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3882382.110410659</v>
+        <v>5310843.420703172</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3946091.2579828</v>
+        <v>5398458.058437813</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4011801.640448479</v>
+        <v>5488846.686745237</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4079056.102895873</v>
+        <v>5581234.011232901</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4147620.339318715</v>
+        <v>5675799.44083162</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4217501.479065673</v>
+        <v>5773193.190399384</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4289571.472253714</v>
+        <v>5873200.619565458</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4363133.635975895</v>
+        <v>5975577.31881557</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4438844.024103655</v>
+        <v>6080692.073333899</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4516989.899278778</v>
+        <v>6188096.933109509</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4596949.042992066</v>
+        <v>6298124.329191085</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4678666.020609351</v>
+        <v>6410793.733233493</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4762331.746862086</v>
+        <v>6526159.596222758</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4848472.403999474</v>
+        <v>6644473.006478548</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4935852.417335048</v>
+        <v>6766332.250540633</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5026025.768714744</v>
+        <v>6890639.540274443</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5118566.510753858</v>
+        <v>7018264.984666603</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5213943.614058232</v>
+        <v>7149163.492349468</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5311027.969506294</v>
+        <v>7283526.101355769</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5410766.512711381</v>
+        <v>7421673.047479608</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5512344.108108733</v>
+        <v>7562324.831475165</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5616365.654968692</v>
+        <v>7706461.509472704</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5722556.344768083</v>
+        <v>7853475.050525647</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5831490.977647699</v>
+        <v>8003803.73450591</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5942836.708009917</v>
+        <v>8157572.331785413</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6056378.408200333</v>
+        <v>8314764.772576222</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6172553.04305491</v>
+        <v>8476260.332206756</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6291249.194795812</v>
+        <v>8641889.387232959</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6413061.169730492</v>
+        <v>8811150.303240007</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6537908.92091478</v>
+        <v>8982951.545936204</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6665709.780769985</v>
+        <v>9159612.442572944</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6795356.508899163</v>
+        <v>9339545.166138396</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6928585.786472145</v>
+        <v>9522554.949442111</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>7063426.090430737</v>
+        <v>9710416.084630489</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>7201601.990941556</v>
+        <v>9902312.155925848</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7342180.261862581</v>
+        <v>10097879.81513706</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>7486505.252390623</v>
+        <v>10298103.80019101</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>7633128.543876471</v>
+        <v>10503370.95418977</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>7782609.482351582</v>
+        <v>10712406.68121106</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>7934991.4246643</v>
+        <v>10924698.28010015</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>8090775.899853786</v>
+        <v>11141205.92936219</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>8249408.604281887</v>
+        <v>11361982.92385989</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8411322.113190869</v>
+        <v>11587657.22337529</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8576463.208468758</v>
+        <v>11816159.64386425</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>8744981.414909307</v>
+        <v>12049588.16121892</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8917068.801644335</v>
+        <v>12286906.95139014</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>9092637.601832598</v>
+        <v>12528529.64133633</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>9271614.102987321</v>
+        <v>12774928.82840405</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9453636.943136817</v>
+        <v>13025647.63484429</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9637994.788785668</v>
+        <v>13281556.13304633</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>9824784.857673816</v>
+        <v>13542174.20895026</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10015103.80792242</v>
+        <v>13806860.2708223</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>10209248.97663128</v>
+        <v>14077677.92001705</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>10406473.17616253</v>
+        <v>14353605.74530518</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>10606944.90330885</v>
+        <v>14634672.71630612</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>10810869.44351459</v>
+        <v>14919585.27164093</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>11017420.80741565</v>
+        <v>15209416.48828604</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>11227368.80436032</v>
+        <v>15503786.23369682</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>11440728.18932222</v>
+        <v>15803183.17369557</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>11658083.14167316</v>
+        <v>16106881.85585613</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>11878018.9345747</v>
+        <v>16415214.34026901</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>12101555.01012535</v>
+        <v>16728490.32221892</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>12328924.7193369</v>
+        <v>17046407.16304752</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>12559929.00876011</v>
+        <v>17369851.55485462</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>12794888.52491359</v>
+        <v>17698222.14931311</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>13032359.19462329</v>
+        <v>18031248.12331109</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>13273630.77456737</v>
+        <v>18368032.11676656</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>13518896.0542051</v>
+        <v>18709779.08054042</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>13767923.23643011</v>
+        <v>19055298.45775707</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>14020911.65086057</v>
+        <v>19406635.2508675</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>14277979.78784789</v>
+        <v>19763023.99717683</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>14538652.21159776</v>
+        <v>20124374.44978593</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>14802966.35817946</v>
+        <v>20489538.90466626</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>15072176.01493492</v>
+        <v>20860389.24898924</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>15343619.28818695</v>
+        <v>21236708.74215816</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>15616513.09554751</v>
+        <v>21617920.13651087</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>15894516.10063491</v>
+        <v>22004733.75760644</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>16175901.57942482</v>
+        <v>22397543.89772259</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>16460514.81287451</v>
+        <v>22795436.14514042</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>16748341.08745018</v>
+        <v>23198425.87400076</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>17041338.84289984</v>
+        <v>23608046.81709097</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>17338592.99996251</v>
+        <v>24022246.45627375</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>17638643.87533553</v>
+        <v>24441954.78719741</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>17944279.74294007</v>
+        <v>24866380.01670424</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>18251324.19164742</v>
+        <v>25296195.35685296</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>18564090.16252542</v>
+        <v>25729015.07177401</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>18880631.13953511</v>
+        <v>26169023.27013988</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>19202621.9746054</v>
+        <v>26614127.31378226</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19527380.52177915</v>
+        <v>27064663.55253084</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19856386.91743294</v>
+        <v>27523089.06578058</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>20189944.21644069</v>
+        <v>27984687.92662185</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>20528083.13058576</v>
+        <v>28453818.04189572</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>20871511.28183634</v>
+        <v>28928340.16767929</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>21218693.88829629</v>
+        <v>29409261.55653537</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>21568367.24445589</v>
+        <v>29897331.74284149</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>21921830.11357354</v>
+        <v>30392084.65991858</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>22280526.84268261</v>
+        <v>30891315.69125056</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>22644034.05256693</v>
+        <v>31397382.97193996</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>23010926.91246843</v>
+        <v>31910131.07045272</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>23383165.27553815</v>
+        <v>32430071.56759392</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>23759944.86073997</v>
+        <v>32956578.23568051</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>24140250.38091879</v>
+        <v>33489842.78950229</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>24526063.73496474</v>
+        <v>34030128.57530683</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>24916881.62343069</v>
+        <v>34577793.9334653</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>25312853.2104826</v>
+        <v>35130688.48845093</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>25714321.92790962</v>
+        <v>35691540.45126997</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>26118343.33250219</v>
+        <v>36259276.71950707</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>26530345.03953819</v>
+        <v>36833834.77414869</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>26944647.1317187</v>
+        <v>37416990.15009992</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>27366223.17933301</v>
+        <v>38006481.64631689</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>27792723.76703617</v>
+        <v>38604973.19551118</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>28224264.58572216</v>
+        <v>39210623.15659143</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>28661878.91074781</v>
+        <v>39823857.33289755</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>29105293.2260497</v>
+        <v>40444448.03868268</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>29554739.01816658</v>
+        <v>41072077.58708225</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>30010658.97294968</v>
+        <v>41710226.36001478</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>30471073.28081974</v>
+        <v>42355585.9777119</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>30935927.84812332</v>
+        <v>43009047.60676042</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>31407044.80066553</v>
+        <v>43671871.95243033</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>37021400.46222133</v>
+        <v>51533502.2959321</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>42702627.54407715</v>
+        <v>59487729.87837914</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>48453576.56576928</v>
+        <v>67540841.6914252</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>54274496.80659696</v>
+        <v>75690704.80543236</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>60166819.37965241</v>
+        <v>83940768.97681531</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>66131479.85888371</v>
+        <v>92292721.47545727</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>72168993.55759476</v>
+        <v>100746746.6909284</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>78281375.06647709</v>
+        <v>109306343.2980594</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>84470183.25956696</v>
+        <v>117971205.1763202</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>90737996.82990909</v>
+        <v>126745126.3435537</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>97084032.71078014</v>
+        <v>135629319.1048859</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>103509464.1041484</v>
+        <v>144625364.8256863</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>110015267.0934758</v>
+        <v>153734077.2500768</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>116603512.1300959</v>
+        <v>162959077.9458415</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>123275180.1311939</v>
+        <v>172300710.5418035</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>130031001.3267011</v>
+        <v>181760752.9603681</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>136871772.6696087</v>
+        <v>191342260.6044478</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>143800610.2831443</v>
+        <v>201044362.1415404</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>150817827.264147</v>
+        <v>210869254.4990138</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>157923636.698563</v>
+        <v>220820733.1665969</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>165120853.0358435</v>
+        <v>230898494.5616919</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>172408584.7164307</v>
+        <v>241106260.7619002</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>179789482.8282456</v>
+        <v>251443537.1462023</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>187264027.6118292</v>
+        <v>261913104.3335862</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>194833914.19328</v>
+        <v>272516033.2219662</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>202501119.7278266</v>
+        <v>283252930.0687816</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>210265841.7926604</v>
+        <v>294124655.8712851</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>218128578.1642842</v>
+        <v>305136427.0916753</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>226090145.440267</v>
+        <v>316287236.1418571</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>234153418.5062463</v>
+        <v>327577155.3782173</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>242316373.3123116</v>
+        <v>339011456.2803834</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>250583362.1858005</v>
+        <v>350587042.2636649</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>258953186.6485877</v>
+        <v>362308142.7973393</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>267426085.615702</v>
+        <v>374174692.7370108</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>276006332.8604912</v>
+        <v>386189553.1147162</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>284691832.017928</v>
+        <v>398350852.96211</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>293482710.2928972</v>
+        <v>410663039.1386321</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>302382114.8654464</v>
+        <v>423124574.7937723</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>311389175.3416771</v>
+        <v>435736879.3952389</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>320504762.8606927</v>
+        <v>448500566.7571994</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>329730769.4285213</v>
+        <v>461418092.6866186</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>339065341.7638308</v>
+        <v>474487788.6323326</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>348510890.8715381</v>
+        <v>487714181.4892013</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>358065601.1179212</v>
+        <v>501093790.1459968</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>367732111.3753255</v>
+        <v>514628917.8050259</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>377508798.6860792</v>
+        <v>528321413.4993963</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>387398053.5387962</v>
+        <v>542168807.7736907</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>397398495.3880482</v>
+        <v>556170959.0844092</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>407510958.3926662</v>
+        <v>570330310.1345286</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>417733743.2473565</v>
+        <v>584646264.3218443</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>428069711.6246535</v>
+        <v>599117548.9431632</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>438515759.874162</v>
+        <v>613744264.5788865</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>449073227.2201236</v>
+        <v>628526411.1916642</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>459740289.7543246</v>
+        <v>643464286.2923181</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>470519245.7683432</v>
+        <v>658555065.8296763</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>479500068.162429</v>
+        <v>671128775.1261127</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>488570919.2192285</v>
+        <v>683828322.9001758</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>497730745.0278956</v>
+        <v>696654731.3843987</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>506980322.45714</v>
+        <v>709605443.5084221</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>516317025.5541435</v>
+        <v>722680331.2655354</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>525740394.4469971</v>
+        <v>735876281.2005022</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>535251688.1054095</v>
+        <v>749193494.7744954</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>544848123.636886</v>
+        <v>762629473.0026337</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>554528100.5605903</v>
+        <v>776183122.2655418</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>564289957.5219148</v>
+        <v>789850823.6323874</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>574134557.6551147</v>
+        <v>803633941.8945062</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>584057867.617298</v>
+        <v>817527731.4513985</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>594060980.0754123</v>
+        <v>831532420.5174867</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>604139528.9170229</v>
+        <v>845644845.6825979</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>614294123.4052269</v>
+        <v>859861540.6246936</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>624503607.9253184</v>
+        <v>874157683.2437139</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>634785297.4837422</v>
+        <v>888554033.4591179</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>645134083.7816126</v>
+        <v>903046485.5644925</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>655561879.7314322</v>
+        <v>917648419.3339958</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>666053506.877543</v>
+        <v>932341082.1731985</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>676607052.1546525</v>
+        <v>947120867.2834444</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>687220528.3925321</v>
+        <v>961983734.2654951</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>697893075.8902647</v>
+        <v>976927131.1560479</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>708618710.6802032</v>
+        <v>991948123.8717096</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>719398513.5359163</v>
+        <v>1007043203.734428</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>732281349.3993838</v>
+        <v>1031602820.283381</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>745222546.2780321</v>
+        <v>1056281979.376648</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>758219698.7467169</v>
+        <v>1081073137.499003</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>771269459.1391299</v>
+        <v>1105972512.44975</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>784368749.9983771</v>
+        <v>1130974319.153094</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>797512632.5662367</v>
+        <v>1156072383.099336</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>810675050.3539072</v>
+        <v>1181224476.749235</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>823564305.2033825</v>
+        <v>1206004626.946182</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>835435676.0754393</v>
+        <v>1229301892.581162</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>845395156.1519893</v>
+        <v>1249773654.251988</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>857826543.6627581</v>
+        <v>1269435505.550704</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>867396005.4271709</v>
+        <v>1284825314.306288</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>874242238.3817796</v>
+        <v>1296143097.321444</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>878770941.9991261</v>
+        <v>1303983362.098174</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>881513881.9363177</v>
+        <v>1309132772.437107</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>883023745.9245578</v>
+        <v>1312410381.692297</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>883806105.9047596</v>
+        <v>1314567601.145767</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>884285472.682496</v>
+        <v>1316241383.955858</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>884798461.1152853</v>
+        <v>1317936435.297126</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>885596358.9077621</v>
+        <v>1320028255.995103</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>883781640.3120515</v>
+        <v>1308581572.792231</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>882607737.4370685</v>
+        <v>1298481696.075765</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>882134078.107697</v>
+        <v>1289791411.301133</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>882383616.4011371</v>
+        <v>1282511063.282336</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>883350207.7749832</v>
+        <v>1276601535.080915</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>885007777.2945843</v>
+        <v>1271990463.86033</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>887318674.2703662</v>
+        <v>1268593547.117571</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>890236748.5736415</v>
+        <v>1266311570.97228</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>893712049.3898919</v>
+        <v>1265045284.146711</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>897693202.8606355</v>
+        <v>1264694000.121767</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>899203167.4883776</v>
+        <v>1262233289.407512</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>901092234.9781413</v>
+        <v>1260472488.23147</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>903339179.4571586</v>
+        <v>1259350339.193191</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>905902183.292053</v>
+        <v>1258791473.687703</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>908743184.2730293</v>
+        <v>1258723651.619681</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>911827490.0697117</v>
+        <v>1259082385.286546</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>915020565.700322</v>
+        <v>1259669541.15882</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>917128644.8079278</v>
+        <v>1258843750.488841</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>915172825.5249743</v>
+        <v>1252546303.810429</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>905722021.7602532</v>
+        <v>1236140860.90945</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>886576917.6205039</v>
+        <v>1206701153.652636</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>857365347.0086094</v>
+        <v>1163790218.22283</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>819225944.4094402</v>
+        <v>1109015232.837848</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>774177177.2278697</v>
+        <v>1045156353.425277</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>724528354.8044717</v>
+        <v>975371307.3358285</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>672486906.5916847</v>
+        <v>902657159.9396971</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>619937483.585217</v>
+        <v>829561959.8064651</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>568363505.8515084</v>
+        <v>758077969.7744954</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>518849518.1509287</v>
+        <v>689651344.8797488</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>472126289.7167844</v>
+        <v>625244994.0548284</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>428632726.6360307</v>
+        <v>565430901.5140707</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>388587024.5656983</v>
+        <v>510471286.7649209</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>352034056.5500277</v>
+        <v>460405439.7874283</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>318900883.7867936</v>
+        <v>415111869.5029438</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>289034903.7868102</v>
+        <v>374361307.2823796</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>262234994.4053961</v>
+        <v>337862650.9852031</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>238269844.2338385</v>
+        <v>305286404.8434571</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>216900495.2612735</v>
+        <v>276294366.661541</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>197887833.1575868</v>
+        <v>250548497.6070855</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>180998999.5611598</v>
+        <v>227724774.3912978</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>166013640.7227774</v>
+        <v>207517665.7283815</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>152729321.0297335</v>
+        <v>189640887.4461428</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>140958180.4579752</v>
+        <v>173835508.8411689</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>130530507.8852891</v>
+        <v>159865166.2157235</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>121294116.8167388</v>
+        <v>147519392.416595</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>113112337.9065527</v>
+        <v>136608194.0227537</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>105861517.2428538</v>
+        <v>126962091.2241767</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>99433429.26620781</v>
+        <v>118430959.6598106</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>93732804.97636631</v>
+        <v>110882732.815316</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_baseline/UFA/carbon_emissions_TH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/carbon_emissions_TH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15097831.9507147</v>
+        <v>8303874.295378068</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13092569.24822849</v>
+        <v>7201126.934767971</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11397460.31034439</v>
+        <v>6269083.35717527</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9947699.001393149</v>
+        <v>5471988.234648072</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8708122.633145254</v>
+        <v>4790548.524044504</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7645548.818060676</v>
+        <v>4205973.180896252</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6732188.510155458</v>
+        <v>3703960.237362801</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5944970.328065279</v>
+        <v>3271534.462085223</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5265055.738294989</v>
+        <v>2897930.84314539</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4676170.228732425</v>
+        <v>2574613.444413399</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4165501.16485207</v>
+        <v>2294411.070163058</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3721558.194192413</v>
+        <v>2050817.985235563</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3334662.717364405</v>
+        <v>1838594.553821103</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2997008.957435856</v>
+        <v>1653677.717242345</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2702005.922086932</v>
+        <v>1491981.831376249</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2443750.1460248</v>
+        <v>1350627.124423834</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2217065.065371641</v>
+        <v>1227181.88800499</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2018228.086706277</v>
+        <v>1119054.04390003</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1843777.229307821</v>
+        <v>1024332.046259396</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1690494.606812587</v>
+        <v>941430.1189088624</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1555998.213781812</v>
+        <v>868385.9579230909</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1437485.441217562</v>
+        <v>804452.2705094328</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1332834.772829041</v>
+        <v>748232.711668449</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1240538.113553444</v>
+        <v>698498.6160251409</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1158887.983768058</v>
+        <v>655154.106306134</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1087190.663400393</v>
+        <v>617311.2602416357</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1024279.445452251</v>
+        <v>584469.245717712</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>968697.1775571196</v>
+        <v>555314.4209209129</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>920307.5788470922</v>
+        <v>530313.3332870125</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>877721.7147899679</v>
+        <v>508603.075387257</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>840539.205451207</v>
+        <v>489686.2461719471</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>808045.8956845445</v>
+        <v>473325.9146867585</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>779253.3563998266</v>
+        <v>458844.1590896585</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>754437.4306458316</v>
+        <v>446549.1311429244</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>733588.9497494304</v>
+        <v>436110.4781318418</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>715730.7206874359</v>
+        <v>427339.3799657179</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>700678.0530181478</v>
+        <v>420369.7886600734</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>688188.0505149197</v>
+        <v>414550.2265241612</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>677953.21016015</v>
+        <v>410132.220265115</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>669783.0375444148</v>
+        <v>406465.4413745184</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>662946.7598371264</v>
+        <v>403773.0574042685</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>658126.3962817513</v>
+        <v>402359.6593721104</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>654144.3530436715</v>
+        <v>401270.5953016725</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>652225.8007529189</v>
+        <v>401635.135767689</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>651519.7634300685</v>
+        <v>402516.6195431973</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>651921.5478995336</v>
+        <v>403697.0314526329</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>653492.6518927363</v>
+        <v>405521.5002808495</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>655770.8585706394</v>
+        <v>407850.052936418</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>658999.8540508824</v>
+        <v>411091.8460452191</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>663026.1902185513</v>
+        <v>414816.6617301971</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>668099.1943877253</v>
+        <v>418873.4338590191</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>674044.5931814539</v>
+        <v>423341.1526546441</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>680696.1726316514</v>
+        <v>428320.5328240682</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>687654.9908825272</v>
+        <v>434007.2520613539</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>695647.6308096556</v>
+        <v>440091.360869695</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>703958.3008203806</v>
+        <v>445985.4838284664</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>712928.8243660282</v>
+        <v>452366.5118175554</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>722179.9546806326</v>
+        <v>458911.4079838385</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>732009.9038017385</v>
+        <v>465821.7840501029</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>742707.745605727</v>
+        <v>472849.524774787</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>753215.997919732</v>
+        <v>479848.0380752164</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>764202.9929481626</v>
+        <v>487631.6322682205</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>775968.473323273</v>
+        <v>495377.1690696727</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>788229.4011173663</v>
+        <v>503425.7634846192</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>800695.7337095276</v>
+        <v>511431.9545290142</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>813612.7985854871</v>
+        <v>519356.3143915301</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>827520.8225841328</v>
+        <v>528335.5306127162</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>840906.5201028343</v>
+        <v>537225.0869887781</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>855015.6741179972</v>
+        <v>546199.0205893393</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>869039.2338020897</v>
+        <v>555316.7856529421</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>883782.8931828385</v>
+        <v>564780.0802753094</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>899517.2355601162</v>
+        <v>574304.70516326</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>914836.5770138639</v>
+        <v>584060.9506813608</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>931019.2109627419</v>
+        <v>594369.7808236184</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>947511.4285464289</v>
+        <v>604495.8631884677</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>964052.2001892882</v>
+        <v>615393.0257607875</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>981230.0820315272</v>
+        <v>626266.6334949832</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>998338.5864729099</v>
+        <v>637135.4829201014</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1015840.19177758</v>
+        <v>647623.6097015355</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1033997.403254023</v>
+        <v>659392.2696710125</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1051869.667847598</v>
+        <v>670277.2693360946</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1071214.391846322</v>
+        <v>681774.5926423355</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1090370.055046376</v>
+        <v>693821.6976061062</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1110274.907888976</v>
+        <v>706038.751700406</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1129915.609942369</v>
+        <v>718353.7750549541</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1151150.45976608</v>
+        <v>730688.5131088821</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1171875.80908639</v>
+        <v>743089.9448410691</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1193514.413212846</v>
+        <v>755949.0682231507</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1215618.85671669</v>
+        <v>769036.4294256386</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1238621.17186311</v>
+        <v>782350.2780418289</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1261421.339908947</v>
+        <v>796382.4641815452</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1284364.54827609</v>
+        <v>809956.0594336216</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1308472.692888972</v>
+        <v>823449.0321309969</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1332152.840214367</v>
+        <v>837381.2578423438</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1356028.616793491</v>
+        <v>851050.2033060922</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1381413.396249843</v>
+        <v>865638.7308599129</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1407486.068419398</v>
+        <v>879898.7244430558</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1433612.115071943</v>
+        <v>895086.1203754866</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1460010.719325752</v>
+        <v>909717.6456246974</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1486896.933216852</v>
+        <v>924696.092794799</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1513376.918631924</v>
+        <v>939446.2416454279</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1540955.91894278</v>
+        <v>955534.1938514871</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1569086.436263861</v>
+        <v>971034.6422675784</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1597358.252168814</v>
+        <v>986368.6530056995</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1625282.225350616</v>
+        <v>1001586.977063822</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1653851.286503651</v>
+        <v>1017455.393678068</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1682601.363009726</v>
+        <v>1032827.397034372</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1712571.715262121</v>
+        <v>1049290.797048273</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1742326.484747661</v>
+        <v>1065421.536201923</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1772220.287255196</v>
+        <v>1081768.962522086</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1801509.131772623</v>
+        <v>1098112.538355127</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1832263.222104688</v>
+        <v>1115018.877396934</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1863150.717645453</v>
+        <v>1132200.15294204</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1894443.850868583</v>
+        <v>1149527.612344342</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1926551.090148062</v>
+        <v>1167095.796156903</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1958704.834985522</v>
+        <v>1184635.026818059</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1991945.754094689</v>
+        <v>1202455.074414911</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2026097.04850122</v>
+        <v>1219810.964294608</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2059958.366335462</v>
+        <v>1237890.769058003</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2094559.657968624</v>
+        <v>1256165.171994103</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2129540.759977584</v>
+        <v>1275015.570013407</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2163957.882117569</v>
+        <v>1294521.969677235</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2199049.150908292</v>
+        <v>1313881.45308757</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2234716.748113766</v>
+        <v>1333163.305299888</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2270829.807652774</v>
+        <v>1352526.532357671</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2307649.003083097</v>
+        <v>1371982.635294664</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2344470.126094735</v>
+        <v>1391797.905805389</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2381822.493042959</v>
+        <v>1411653.35604937</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2419520.64960665</v>
+        <v>1432599.439519388</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2458076.331565691</v>
+        <v>1454059.834061506</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2496585.224783277</v>
+        <v>1475158.070760202</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2535387.298958343</v>
+        <v>1496319.201177621</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2574051.368900873</v>
+        <v>1517547.076772812</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2612719.82595756</v>
+        <v>1539785.931776485</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2652378.541829874</v>
+        <v>1561720.847330733</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2692605.23015026</v>
+        <v>1583893.803479584</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2733265.567514935</v>
+        <v>1605779.681982832</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2774066.449901944</v>
+        <v>1628668.802931385</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2815314.925755187</v>
+        <v>1651365.244221208</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2856783.447168325</v>
+        <v>1673879.892257334</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2898112.345206943</v>
+        <v>1696895.061271689</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2938906.246405938</v>
+        <v>1719475.349502313</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2977786.926967219</v>
+        <v>1743120.55611432</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3016626.725233722</v>
+        <v>1766599.231602018</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3054506.914894145</v>
+        <v>1790220.777607939</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3092582.925700003</v>
+        <v>1814668.350659186</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3133893.852592961</v>
+        <v>1839470.888985254</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3177640.780664901</v>
+        <v>1864237.611305881</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3221852.804920035</v>
+        <v>1889535.874853468</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3267203.486577466</v>
+        <v>1915353.266010575</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3312795.505473671</v>
+        <v>1941260.821018343</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3358922.254363425</v>
+        <v>1967903.651603353</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3405858.704618138</v>
+        <v>1995206.851322031</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3453638.631384242</v>
+        <v>2022865.833827039</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3502646.59328991</v>
+        <v>2050252.576707562</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3552044.881291003</v>
+        <v>2078060.476232333</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3602326.539677905</v>
+        <v>2106863.531958502</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3653596.130819265</v>
+        <v>2136700.146058857</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3705852.685769568</v>
+        <v>2166699.192193211</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3758643.947295532</v>
+        <v>2196793.465751329</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3811854.807938591</v>
+        <v>2227209.165391901</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3866180.677807141</v>
+        <v>2258621.06648857</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3921771.785219371</v>
+        <v>2290706.989176151</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3978702.47997362</v>
+        <v>2322881.06858761</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4035876.596908548</v>
+        <v>2355776.109374717</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4094541.546908899</v>
+        <v>2389323.029593021</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4154321.934089255</v>
+        <v>2423523.80674392</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4215356.610620758</v>
+        <v>2458828.906516975</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4277469.415041045</v>
+        <v>2493984.919110037</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4340814.198433872</v>
+        <v>2528442.368412335</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4406080.812646918</v>
+        <v>2562129.169599952</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4472075.852495722</v>
+        <v>2595835.207227699</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4539977.750064246</v>
+        <v>2629101.164713152</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4608454.045013464</v>
+        <v>2665332.588873895</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4679220.852749743</v>
+        <v>2703390.178804478</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4751672.403962292</v>
+        <v>2743462.208816506</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4826118.708019862</v>
+        <v>2785065.20298317</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4902044.345102967</v>
+        <v>2827362.669600721</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4979437.158528153</v>
+        <v>2871377.344183566</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5058620.87395619</v>
+        <v>2916388.28924059</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5140699.308605459</v>
+        <v>2961976.267669283</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5224974.184204013</v>
+        <v>3009135.388445932</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5310843.420703172</v>
+        <v>3057888.681035304</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5398458.058437813</v>
+        <v>3107468.303594088</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5488846.686745237</v>
+        <v>3158981.262593622</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5581234.011232901</v>
+        <v>3210980.695942844</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5675799.44083162</v>
+        <v>3264389.912354841</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5773193.190399384</v>
+        <v>3318982.892626218</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5873200.619565458</v>
+        <v>3374938.296984528</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5975577.31881557</v>
+        <v>3432743.406728167</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6080692.073333899</v>
+        <v>3491422.772121828</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6188096.933109509</v>
+        <v>3551727.438296054</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6298124.329191085</v>
+        <v>3614675.102035544</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6410793.733233493</v>
+        <v>3678546.766007684</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6526159.596222758</v>
+        <v>3743547.01800351</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6644473.006478548</v>
+        <v>3810095.947378323</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6766332.250540633</v>
+        <v>3878638.110043687</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6890639.540274443</v>
+        <v>3948506.352833196</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7018264.984666603</v>
+        <v>4019769.894938837</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7149163.492349468</v>
+        <v>4092214.769180282</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7283526.101355769</v>
+        <v>4167034.882298486</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7421673.047479608</v>
+        <v>4243736.402140167</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7562324.831475165</v>
+        <v>4322547.606768038</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7706461.509472704</v>
+        <v>4403599.328020902</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7853475.050525647</v>
+        <v>4486848.893911241</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>8003803.73450591</v>
+        <v>4572183.710973935</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>8157572.331785413</v>
+        <v>4659824.167657617</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>8314764.772576222</v>
+        <v>4748356.9988939</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>8476260.332206756</v>
+        <v>4838955.440566303</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>8641889.387232959</v>
+        <v>4930881.542910366</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>8811150.303240007</v>
+        <v>5025170.997660612</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>8982951.545936204</v>
+        <v>5121594.787844072</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9159612.442572944</v>
+        <v>5219892.966187039</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9339545.166138396</v>
+        <v>5320258.947949644</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9522554.949442111</v>
+        <v>5422300.164044739</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>9710416.084630489</v>
+        <v>5527080.940402821</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9902312.155925848</v>
+        <v>5634031.745044028</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>10097879.81513706</v>
+        <v>5743302.608165874</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>10298103.80019101</v>
+        <v>5855851.529977762</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>10503370.95418977</v>
+        <v>5970164.800834002</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10712406.68121106</v>
+        <v>6086298.59360108</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>10924698.28010015</v>
+        <v>6206070.456688084</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>11141205.92936219</v>
+        <v>6328401.577359968</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>11361982.92385989</v>
+        <v>6452313.133319333</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>11587657.22337529</v>
+        <v>6578880.972916497</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11816159.64386425</v>
+        <v>6707440.409121813</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12049588.16121892</v>
+        <v>6838737.303957896</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12286906.95139014</v>
+        <v>6971336.087585226</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>12528529.64133633</v>
+        <v>7106790.925296013</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>12774928.82840405</v>
+        <v>7244820.606927278</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13025647.63484429</v>
+        <v>7384879.216564896</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13281556.13304633</v>
+        <v>7527438.991236417</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13542174.20895026</v>
+        <v>7672291.589857371</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13806860.2708223</v>
+        <v>7819044.947982645</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14077677.92001705</v>
+        <v>7968717.871492358</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14353605.74530518</v>
+        <v>8120634.224497613</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>14634672.71630612</v>
+        <v>8274769.749348697</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>14919585.27164093</v>
+        <v>8431414.743504098</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>15209416.48828604</v>
+        <v>8591022.659450125</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>15503786.23369682</v>
+        <v>8753237.373601209</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>15803183.17369557</v>
+        <v>8917298.293106103</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>16106881.85585613</v>
+        <v>9084708.063861292</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>16415214.34026901</v>
+        <v>9254891.558846474</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>16728490.32221892</v>
+        <v>9427173.922273207</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>17046407.16304752</v>
+        <v>9601772.787280712</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>17369851.55485462</v>
+        <v>9779834.531980652</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>17698222.14931311</v>
+        <v>9960580.959052859</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>18031248.12331109</v>
+        <v>10144022.17033743</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>18368032.11676656</v>
+        <v>10330029.26851369</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>18709779.08054042</v>
+        <v>10518614.8926427</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>19055298.45775707</v>
+        <v>10710442.51128782</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>19406635.2508675</v>
+        <v>10905631.56736226</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>19763023.99717683</v>
+        <v>11102334.05145719</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>20124374.44978593</v>
+        <v>11303016.45636267</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>20489538.90466626</v>
+        <v>11507039.04534641</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>20860389.24898924</v>
+        <v>11713412.00456622</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>21236708.74215816</v>
+        <v>11923425.89154897</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>21617920.13651087</v>
+        <v>12135987.88108957</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>22004733.75760644</v>
+        <v>12352138.04071624</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>22397543.89772259</v>
+        <v>12570641.0131353</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>22795436.14514042</v>
+        <v>12793096.01543124</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>23198425.87400076</v>
+        <v>13018370.85190024</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>23608046.81709097</v>
+        <v>13246583.1852685</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>24022246.45627375</v>
+        <v>13476359.01003507</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>24441954.78719741</v>
+        <v>13708367.29137287</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>24866380.01670424</v>
+        <v>13944111.62537406</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>25296195.35685296</v>
+        <v>14183151.21759865</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>25729015.07177401</v>
+        <v>14424014.7340849</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>26169023.27013988</v>
+        <v>14668900.25783801</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>26614127.31378226</v>
+        <v>14917016.56805045</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>27064663.55253084</v>
+        <v>15168174.40813771</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>27523089.06578058</v>
+        <v>15422136.32965755</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>27984687.92662185</v>
+        <v>15679404.66201835</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>28453818.04189572</v>
+        <v>15940588.82320779</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>28928340.16767929</v>
+        <v>16204306.32422745</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>29409261.55653537</v>
+        <v>16471682.68296799</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>29897331.74284149</v>
+        <v>16742099.30444535</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>30392084.65991858</v>
+        <v>17016458.51497441</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>30891315.69125056</v>
+        <v>17294708.2126565</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>31397382.97193996</v>
+        <v>17576220.59049545</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>31910131.07045272</v>
+        <v>17861756.52101255</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>32430071.56759392</v>
+        <v>18150631.51913644</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>32956578.23568051</v>
+        <v>18443386.3515864</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>33489842.78950229</v>
+        <v>18738914.38015706</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>34030128.57530683</v>
+        <v>19036950.94173708</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>34577793.9334653</v>
+        <v>19338396.03084637</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>35130688.48845093</v>
+        <v>19642954.74170811</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>35691540.45126997</v>
+        <v>19951483.29474337</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>36259276.71950707</v>
+        <v>20265172.83118323</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>36833834.77414869</v>
+        <v>20581273.76341689</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>37416990.15009992</v>
+        <v>20902063.30776251</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>38006481.64631689</v>
+        <v>21225904.85697048</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>38604973.19551118</v>
+        <v>21553814.83740947</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>39210623.15659143</v>
+        <v>21886813.24124365</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>39823857.33289755</v>
+        <v>22222965.78561092</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>40444448.03868268</v>
+        <v>22564767.39245571</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>41072077.58708225</v>
+        <v>22909929.97895262</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>41710226.36001478</v>
+        <v>23259476.58336328</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>42355585.9777119</v>
+        <v>23612175.71035112</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>43009047.60676042</v>
+        <v>23970905.13914441</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>43671871.95243033</v>
+        <v>24334161.93274926</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>51533502.2959321</v>
+        <v>28655560.35503441</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>59487729.87837914</v>
+        <v>33029758.95755524</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>67540841.6914252</v>
+        <v>37458475.14478832</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>75690704.80543236</v>
+        <v>41939609.20422482</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>83940768.97681531</v>
+        <v>46476767.84824495</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>92292721.47545727</v>
+        <v>51069322.26166011</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>100746746.6909284</v>
+        <v>55719386.28572889</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>109306343.2980594</v>
+        <v>60425501.89945757</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>117971205.1763202</v>
+        <v>65189735.72526009</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>126745126.3435537</v>
+        <v>70015137.5159269</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>135629319.1048859</v>
+        <v>74899289.72512098</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>144625364.8256863</v>
+        <v>79845748.13113803</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>153734077.2500768</v>
+        <v>84854216.90225205</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>162959077.9458415</v>
+        <v>89926985.34287398</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>172300710.5418035</v>
+        <v>95062405.26466694</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>181760752.9603681</v>
+        <v>100262024.8906846</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>191342260.6044478</v>
+        <v>105527582.0523592</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>201044362.1415404</v>
+        <v>110861946.1575145</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>210869254.4990138</v>
+        <v>116263646.194069</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>220820733.1665969</v>
+        <v>121733623.0969125</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>230898494.5616919</v>
+        <v>127274680.971632</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>241106260.7619002</v>
+        <v>132884836.6432425</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>251443537.1462023</v>
+        <v>138566388.5977675</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>261913104.3335862</v>
+        <v>144320384.6402817</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>272516033.2219662</v>
+        <v>150147803.1829417</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>283252930.0687816</v>
+        <v>156050143.0174622</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>294124655.8712851</v>
+        <v>162025625.7186182</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>305136427.0916753</v>
+        <v>168076807.7035525</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>316287236.1418571</v>
+        <v>174205167.0684622</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>327577155.3782173</v>
+        <v>180410170.4185539</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>339011456.2803834</v>
+        <v>186693773.6953387</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>350587042.2636649</v>
+        <v>193056638.9556389</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>362308142.7973393</v>
+        <v>199497602.7929999</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>374174692.7370108</v>
+        <v>206019950.2065445</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>386189553.1147162</v>
+        <v>212623897.9454123</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>398350852.96211</v>
+        <v>219308922.0362092</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>410663039.1386321</v>
+        <v>226076660.7411203</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>423124574.7937723</v>
+        <v>232926384.3363497</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>435736879.3952389</v>
+        <v>239858735.6766006</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>448500566.7571994</v>
+        <v>246876547.7787541</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>461418092.6866186</v>
+        <v>253978149.0357094</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>474487788.6323326</v>
+        <v>261164886.4645717</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>487714181.4892013</v>
+        <v>268435749.5557686</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>501093790.1459968</v>
+        <v>275791769.0134202</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>514628917.8050259</v>
+        <v>283234416.7421129</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>528321413.4993963</v>
+        <v>290762810.0693716</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>542168807.7736907</v>
+        <v>298377164.2602888</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>556170959.0844092</v>
+        <v>306078382.7492498</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>570330310.1345286</v>
+        <v>313863023.5314037</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>584646264.3218443</v>
+        <v>321734334.7343804</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>599117548.9431632</v>
+        <v>329690330.9875084</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>613744264.5788865</v>
+        <v>337733893.1548024</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>628526411.1916642</v>
+        <v>345860880.4124887</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>643464286.2923181</v>
+        <v>354075433.1575467</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>658555065.8296763</v>
+        <v>362373294.094531</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>671128775.1261127</v>
+        <v>369286642.1532044</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>683828322.9001758</v>
+        <v>376270042.7107177</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>696654731.3843987</v>
+        <v>383323827.320187</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>709605443.5084221</v>
+        <v>390444023.1264596</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>722680331.2655354</v>
+        <v>397633586.927178</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>735876281.2005022</v>
+        <v>404890231.6809467</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>749193494.7744954</v>
+        <v>412213411.795514</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>762629473.0026337</v>
+        <v>419602351.6870615</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>776183122.2655418</v>
+        <v>427054693.9678349</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>789850823.6323874</v>
+        <v>434571070.5138676</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>803633941.8945062</v>
+        <v>442150313.9457868</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>817527731.4513985</v>
+        <v>449790488.9806981</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>831532420.5174867</v>
+        <v>457491245.9688195</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>845644845.6825979</v>
+        <v>465251151.0065635</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>859861540.6246936</v>
+        <v>473069222.8173142</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>874157683.2437139</v>
+        <v>480929286.1564837</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>888554033.4591179</v>
+        <v>488844907.3241364</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>903046485.5644925</v>
+        <v>496813140.0601125</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>917648419.3339958</v>
+        <v>504841731.8795685</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>932341082.1731985</v>
+        <v>512919328.0755697</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>947120867.2834444</v>
+        <v>521045389.8174767</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>961983734.2654951</v>
+        <v>529217203.3523131</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>976927131.1560479</v>
+        <v>537432867.8651698</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>991948123.8717096</v>
+        <v>545692252.960602</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1007043203.734428</v>
+        <v>553990059.7284799</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1031602820.283381</v>
+        <v>567494863.8315419</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1056281979.376648</v>
+        <v>581064670.7791569</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1081073137.499003</v>
+        <v>594696593.0190828</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1105972512.44975</v>
+        <v>608387129.9633688</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1130974319.153094</v>
+        <v>622134810.8161442</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1156072383.099336</v>
+        <v>648447742.9854503</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1181224476.749235</v>
+        <v>674848578.5367663</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1206004626.946182</v>
+        <v>701085476.4994093</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1229301892.581162</v>
+        <v>726487831.0166337</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1249773654.251988</v>
+        <v>750207561.8282602</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1269435505.550704</v>
+        <v>774569324.7336912</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1284825314.306288</v>
+        <v>796147208.5214407</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1296143097.321444</v>
+        <v>814950224.8387299</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1303983362.098174</v>
+        <v>831263577.6009841</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1309132772.437107</v>
+        <v>845522741.4889801</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1312410381.692297</v>
+        <v>858214995.3598804</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1314567601.145767</v>
+        <v>869810976.5526447</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1316241383.955858</v>
+        <v>880728948.0543896</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1317936435.297126</v>
+        <v>891314807.6813509</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1320028255.995103</v>
+        <v>901842954.8527631</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1308581572.792231</v>
+        <v>898315620.2190397</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1298481696.075765</v>
+        <v>895593177.6297295</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1289791411.301133</v>
+        <v>893737012.5031148</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1282511063.282336</v>
+        <v>892767017.8056536</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1276601535.080915</v>
+        <v>892669441.8116295</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1271990463.86033</v>
+        <v>893410880.8762455</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1268593547.117571</v>
+        <v>894942639.1821387</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1266311570.97228</v>
+        <v>897208502.6665139</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1265045284.146711</v>
+        <v>900148494.6347775</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1264694000.121767</v>
+        <v>903701112.4777067</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1262233289.407512</v>
+        <v>904878921.2600164</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1260472488.23147</v>
+        <v>906523863.8808328</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1259350339.193191</v>
+        <v>908606312.584163</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1258791473.687703</v>
+        <v>911078239.73432</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1258723651.619681</v>
+        <v>913894596.004952</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1259082385.286546</v>
+        <v>917013023.5311368</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1259669541.15882</v>
+        <v>920295721.1902509</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1258843750.488841</v>
+        <v>922536380.1020432</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1252546303.810429</v>
+        <v>920739328.7946054</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>1236140860.90945</v>
+        <v>911446778.530362</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1206701153.652636</v>
+        <v>892437226.5193628</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1163790218.22283</v>
+        <v>863323587.8078237</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1109015232.837848</v>
+        <v>825237105.7184045</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1045156353.425277</v>
+        <v>780191408.5631911</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>975371307.3358285</v>
+        <v>730499239.2623042</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>902657159.9396971</v>
+        <v>678372477.7767606</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>829561959.8064651</v>
+        <v>625702004.1444035</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>758077969.7744954</v>
+        <v>573977477.5000343</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>689651344.8797488</v>
+        <v>524290333.7347225</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>625244994.0548284</v>
+        <v>477379391.7399273</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>565430901.5140707</v>
+        <v>433686355.7927783</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>510471286.7649209</v>
+        <v>393434254.2109593</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>460405439.7874283</v>
+        <v>356671995.359157</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>415111869.5029438</v>
+        <v>323329852.839637</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>374361307.2823796</v>
+        <v>293259973.2624125</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>337862650.9852031</v>
+        <v>266261817.2458218</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>305286404.8434571</v>
+        <v>242105684.9197266</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>276294366.661541</v>
+        <v>220554569.3858922</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>250548497.6070855</v>
+        <v>201367007.8553242</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>227724774.3912978</v>
+        <v>184312348.817772</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>207517665.7283815</v>
+        <v>169170586.603146</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>189640887.4461428</v>
+        <v>155739702.4115281</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>173835508.8411689</v>
+        <v>143831964.0924412</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>159865166.2157235</v>
+        <v>133277029.5080996</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>147519392.416595</v>
+        <v>123922857.8890348</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>136608194.0227537</v>
+        <v>115630595.5568719</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>126962091.2241767</v>
+        <v>108277492.6767821</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>118430959.6598106</v>
+        <v>101756599.4400886</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>110882732.815316</v>
+        <v>95969906.61703217</v>
       </c>
     </row>
     <row r="452">
